--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -284,10 +284,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,7 +594,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -604,10 +604,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -626,10 +626,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -638,10 +638,10 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -680,24 +680,24 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="B11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -779,10 +779,10 @@
       <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -812,11 +812,11 @@
       <c r="J15" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="4">
         <f>H12*1000/H13/2</f>
         <v>2.4437927663734116</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -832,10 +832,10 @@
         <f>H16*H13/H12</f>
         <v>511.5</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -856,11 +856,11 @@
       <c r="J17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="4">
         <f>H12*1000/H13/9.1</f>
         <v>0.53709731129085969</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
